--- a/Documentos/NM/ENTREGABLES/diseño_funcional/PROYECTO/excel/proyecto-nm.xlsx
+++ b/Documentos/NM/ENTREGABLES/diseño_funcional/PROYECTO/excel/proyecto-nm.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JuliaMartinezValera/GitHub/Vesper/Documentos/NM/PROYECTO/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JuliaMartinezValera/GitHub/Vesper/Documentos/NM/ENTREGABLES/diseño_funcional/PROYECTO/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="characters" sheetId="3" r:id="rId1"/>
@@ -38,18 +38,19 @@
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="58" r:id="rId10"/>
-    <pivotCache cacheId="60" r:id="rId11"/>
-    <pivotCache cacheId="68" r:id="rId12"/>
-    <pivotCache cacheId="74" r:id="rId13"/>
-    <pivotCache cacheId="80" r:id="rId14"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
+    <pivotCache cacheId="3" r:id="rId13"/>
+    <pivotCache cacheId="4" r:id="rId14"/>
+    <pivotCache cacheId="6" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId15"/>
         <x14:slicerCache r:id="rId16"/>
         <x14:slicerCache r:id="rId17"/>
+        <x14:slicerCache r:id="rId18"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -178,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="921">
   <si>
     <t>name</t>
   </si>
@@ -2926,19 +2927,39 @@
   </si>
   <si>
     <t>Cuenta de collection</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>(arrays)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2949,7 +2970,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2957,11 +2978,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2970,6 +3102,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3796,11 +3938,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-1437116112"/>
-        <c:axId val="-1441910896"/>
+        <c:axId val="-804710416"/>
+        <c:axId val="-804714096"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="-1441910896"/>
+        <c:axId val="-804714096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3809,11 +3951,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1437116112"/>
+        <c:crossAx val="-804710416"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1437116112"/>
+        <c:axId val="-804710416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3870,7 +4013,8 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1441910896"/>
+        <c:crossAx val="-804714096"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5595,6 +5739,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10442,6 +10587,39 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Usuario de Microsoft Office" refreshedDate="42867.573831597219" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="50">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F51" sheet="franchises"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="55"/>
+    </cacheField>
+    <cacheField name="name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="created_at" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1301132282000" maxValue="1372406684537"/>
+    </cacheField>
+    <cacheField name="updated_at" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1323289212000" maxValue="1372406684537"/>
+    </cacheField>
+    <cacheField name="slug" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="url" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="21">
   <r>
@@ -11541,8 +11719,433 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="50">
+  <r>
+    <n v="1"/>
+    <s v="Star Wars"/>
+    <n v="1301132282000"/>
+    <n v="1323289212000"/>
+    <s v="star-wars"/>
+    <s v="https://www.igdb.com/franchises/star-wars"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Indiana Jones"/>
+    <n v="1301133404000"/>
+    <n v="1323289212000"/>
+    <s v="indiana-jones"/>
+    <s v="https://www.igdb.com/franchises/indiana-jones"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Conan"/>
+    <n v="1301299735000"/>
+    <n v="1323289212000"/>
+    <s v="conan"/>
+    <s v="https://www.igdb.com/franchises/conan"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Final Fantasy"/>
+    <n v="1301495590000"/>
+    <n v="1323289212000"/>
+    <s v="final-fantasy"/>
+    <s v="https://www.igdb.com/franchises/final-fantasy"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Batman"/>
+    <n v="1301514188000"/>
+    <n v="1323289212000"/>
+    <s v="batman"/>
+    <s v="https://www.igdb.com/franchises/batman"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Warhammer 40,000"/>
+    <n v="1301998703000"/>
+    <n v="1323289212000"/>
+    <s v="warhammer-40-000"/>
+    <s v="https://www.igdb.com/franchises/warhammer-40-000"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Transformers"/>
+    <n v="1317714192000"/>
+    <n v="1323289212000"/>
+    <s v="transformers"/>
+    <s v="https://www.igdb.com/franchises/transformers"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Ghostbusters"/>
+    <n v="1317738666000"/>
+    <n v="1323289212000"/>
+    <s v="ghostbusters"/>
+    <s v="https://www.igdb.com/franchises/ghostbusters"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Tom Clancy"/>
+    <n v="1317799488000"/>
+    <n v="1323289212000"/>
+    <s v="tom-clancy"/>
+    <s v="https://www.igdb.com/franchises/tom-clancy"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Sid Meier"/>
+    <n v="1317799909000"/>
+    <n v="1323289212000"/>
+    <s v="sid-meier"/>
+    <s v="https://www.igdb.com/franchises/sid-meier"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="The Lord of the Rings"/>
+    <n v="1318034617000"/>
+    <n v="1323289212000"/>
+    <s v="the-lord-of-the-rings"/>
+    <s v="https://www.igdb.com/franchises/the-lord-of-the-rings"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="Command &amp; Conquer"/>
+    <n v="1318164222000"/>
+    <n v="1323289212000"/>
+    <s v="command-conquer"/>
+    <s v="https://www.igdb.com/franchises/command-conquer"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="BattleTech"/>
+    <n v="1318414962000"/>
+    <n v="1323289212000"/>
+    <s v="battletech"/>
+    <s v="https://www.igdb.com/franchises/battletech"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="MechWarrior"/>
+    <n v="1318415115000"/>
+    <n v="1323289212000"/>
+    <s v="mechwarrior"/>
+    <s v="https://www.igdb.com/franchises/mechwarrior"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="NASCAR"/>
+    <n v="1318786259000"/>
+    <n v="1323289212000"/>
+    <s v="nascar"/>
+    <s v="https://www.igdb.com/franchises/nascar"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="NBA"/>
+    <n v="1318786536000"/>
+    <n v="1323289212000"/>
+    <s v="nba"/>
+    <s v="https://www.igdb.com/franchises/nba"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="Star Trek"/>
+    <n v="1321382936000"/>
+    <n v="1323289212000"/>
+    <s v="star-trek"/>
+    <s v="https://www.igdb.com/franchises/star-trek"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="Matrix"/>
+    <n v="1322595520000"/>
+    <n v="1323289212000"/>
+    <s v="matrix"/>
+    <s v="https://www.igdb.com/franchises/matrix"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="Beneath a Steel Sky"/>
+    <n v="1322653153000"/>
+    <n v="1323289212000"/>
+    <s v="beneath-a-steel-sky"/>
+    <s v="https://www.igdb.com/franchises/beneath-a-steel-sky"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="BloodRayne"/>
+    <n v="1326045134414"/>
+    <n v="1326045134414"/>
+    <s v="bloodrayne"/>
+    <s v="https://www.igdb.com/franchises/bloodrayne"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="Worms"/>
+    <n v="1326046782791"/>
+    <n v="1326046782791"/>
+    <s v="worms"/>
+    <s v="https://www.igdb.com/franchises/worms"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="Alien"/>
+    <n v="1326204891000"/>
+    <n v="1326204891000"/>
+    <s v="alien"/>
+    <s v="https://www.igdb.com/franchises/alien"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="Mario Bros."/>
+    <n v="1339334809730"/>
+    <n v="1339334809730"/>
+    <s v="mario-bros"/>
+    <s v="https://www.igdb.com/franchises/mario-bros"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="Men of War"/>
+    <n v="1340902131605"/>
+    <n v="1340902131605"/>
+    <s v="men-of-war"/>
+    <s v="https://www.igdb.com/franchises/men-of-war"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="Disney"/>
+    <n v="1341175224960"/>
+    <n v="1341175224960"/>
+    <s v="disney"/>
+    <s v="https://www.igdb.com/franchises/disney"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="Jason Bourne"/>
+    <n v="1342908032562"/>
+    <n v="1342908032562"/>
+    <s v="jason-bourne"/>
+    <s v="https://www.igdb.com/franchises/jason-bourne"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="South Park"/>
+    <n v="1342990578446"/>
+    <n v="1342990578446"/>
+    <s v="south-park"/>
+    <s v="https://www.igdb.com/franchises/south-park"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="Resident Evil"/>
+    <n v="1346600556558"/>
+    <n v="1346600556558"/>
+    <s v="resident-evil"/>
+    <s v="https://www.igdb.com/franchises/resident-evil"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <s v="Tex Murphy"/>
+    <n v="1347385286275"/>
+    <n v="1347385286275"/>
+    <s v="tex-murphy"/>
+    <s v="https://www.igdb.com/franchises/tex-murphy"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <s v="Robin Hood"/>
+    <n v="1348356402043"/>
+    <n v="1348356402043"/>
+    <s v="robin-hood"/>
+    <s v="https://www.igdb.com/franchises/robin-hood"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <s v="Mickey Mouse"/>
+    <n v="1349722899184"/>
+    <n v="1349722899184"/>
+    <s v="mickey-mouse"/>
+    <s v="https://www.igdb.com/franchises/mickey-mouse"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="Cthulhu"/>
+    <n v="1350759457401"/>
+    <n v="1350759457401"/>
+    <s v="cthulhu"/>
+    <s v="https://www.igdb.com/franchises/cthulhu"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="James Bond"/>
+    <n v="1351020746443"/>
+    <n v="1351020746443"/>
+    <s v="james-bond"/>
+    <s v="https://www.igdb.com/franchises/james-bond"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="Mega Man"/>
+    <n v="1352058894794"/>
+    <n v="1352058894794"/>
+    <s v="mega-man"/>
+    <s v="https://www.igdb.com/franchises/mega-man"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="The Walking Dead"/>
+    <n v="1355062561684"/>
+    <n v="1355062561684"/>
+    <s v="the-walking-dead"/>
+    <s v="https://www.igdb.com/franchises/the-walking-dead"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="Family Guy"/>
+    <n v="1355065502747"/>
+    <n v="1355065502747"/>
+    <s v="family-guy"/>
+    <s v="https://www.igdb.com/franchises/family-guy"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="Dungeon Keeper"/>
+    <n v="1358311901081"/>
+    <n v="1358311901081"/>
+    <s v="dungeon-keeper"/>
+    <s v="https://www.igdb.com/franchises/dungeon-keeper"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <s v="Magic The Gathering"/>
+    <n v="1358683435217"/>
+    <n v="1358683435217"/>
+    <s v="magic-the-gathering"/>
+    <s v="https://www.igdb.com/franchises/magic-the-gathering"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <s v="Dungeons &amp; Dragons"/>
+    <n v="1359738283538"/>
+    <n v="1359738283538"/>
+    <s v="dungeons-dragons"/>
+    <s v="https://www.igdb.com/franchises/dungeons-dragons"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <s v="DC Comics"/>
+    <n v="1360510076657"/>
+    <n v="1360510076657"/>
+    <s v="dc-comics"/>
+    <s v="https://www.igdb.com/franchises/dc-comics"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <s v="Deadpool"/>
+    <n v="1360511435297"/>
+    <n v="1360511435297"/>
+    <s v="deadpool"/>
+    <s v="https://www.igdb.com/franchises/deadpool"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <s v="Stargate SG-1"/>
+    <n v="1364256570955"/>
+    <n v="1364256570955"/>
+    <s v="stargate-sg-1"/>
+    <s v="https://www.igdb.com/franchises/stargate-sg-1"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <s v="XIII"/>
+    <n v="1364424816005"/>
+    <n v="1364424816005"/>
+    <s v="xiii"/>
+    <s v="https://www.igdb.com/franchises/xiii"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <s v="Fast &amp; Furious"/>
+    <n v="1368186802289"/>
+    <n v="1368186802289"/>
+    <s v="fast-furious"/>
+    <s v="https://www.igdb.com/franchises/fast-furious"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="The Avengers"/>
+    <n v="1368777568760"/>
+    <n v="1368777568760"/>
+    <s v="the-avengers"/>
+    <s v="https://www.igdb.com/franchises/the-avengers"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <s v="LEGO"/>
+    <n v="1372173591416"/>
+    <n v="1372173591416"/>
+    <s v="lego"/>
+    <s v="https://www.igdb.com/franchises/lego"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <s v="Fables and Fiends"/>
+    <n v="1372199249998"/>
+    <n v="1372199249998"/>
+    <s v="fables-and-fiends"/>
+    <s v="https://www.igdb.com/franchises/fables-and-fiends"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <s v="Aqua"/>
+    <n v="1372282925287"/>
+    <n v="1372282925287"/>
+    <s v="aqua"/>
+    <s v="https://www.igdb.com/franchises/aqua"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <s v="Shannara"/>
+    <n v="1372318294926"/>
+    <n v="1372318294926"/>
+    <s v="shannara"/>
+    <s v="https://www.igdb.com/franchises/shannara"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <s v="Deathspank"/>
+    <n v="1372406684537"/>
+    <n v="1372406684537"/>
+    <s v="deathspank"/>
+    <s v="https://www.igdb.com/franchises/deathspank"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica16" cacheId="80" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A54:C71" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica16" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A8:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -11600,8 +12203,139 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica14" cacheId="74" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica13" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J4:P5" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="51">
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="0"/>
+        <item x="34"/>
+        <item x="42"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="18"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="15"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="43"/>
+        <item x="25"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="16"/>
+        <item x="29"/>
+        <item x="10"/>
+        <item x="27"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="4"/>
+        <item x="21"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="28"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="22"/>
+        <item x="26"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" dataField="1" showAll="0">
+      <items count="10">
+        <item x="8"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="7" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="7">
+    <dataField name="Suma de id" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Suma de popularity" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Cuenta de collection" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Suma de updated_at" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Cuenta de slug" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Cuenta de url" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Suma de created_at" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica14" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A53:B104" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -11840,246 +12574,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica13" cacheId="74" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J4:P5" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="51">
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="0"/>
-        <item x="34"/>
-        <item x="42"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="18"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="15"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="43"/>
-        <item x="25"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="16"/>
-        <item x="29"/>
-        <item x="10"/>
-        <item x="27"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="4"/>
-        <item x="21"/>
-        <item x="12"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="28"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="22"/>
-        <item x="26"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisPage" dataField="1" showAll="0">
-      <items count="10">
-        <item x="8"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="7" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="7">
-    <dataField name="Suma de id" fld="0" baseField="0" baseItem="0"/>
-    <dataField name="Suma de popularity" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Cuenta de collection" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Suma de updated_at" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Cuenta de slug" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Cuenta de url" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Suma de created_at" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica12" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I4:N5" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="7">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="21">
-        <item x="17"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="18"/>
-        <item x="3"/>
-        <item x="16"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisPage" dataField="1" showAll="0">
-      <items count="21">
-        <item x="13"/>
-        <item x="2"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="18"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="16"/>
-        <item x="14"/>
-        <item x="19"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="6" hier="-1"/>
-  </pageFields>
-  <dataFields count="6">
-    <dataField name="Suma de created_at" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Suma de updated_at" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Cuenta de slug" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Cuenta de url" fld="5" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Cuenta de id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Suma de cantidad" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica9" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A23:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -12197,15 +12693,122 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica12" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I4:N5" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="21">
+        <item x="17"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="18"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" dataField="1" showAll="0">
+      <items count="21">
+        <item x="13"/>
+        <item x="2"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="6">
+    <dataField name="Suma de created_at" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Suma de updated_at" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Cuenta de slug" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Cuenta de url" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Cuenta de id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Suma de cantidad" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="22">
-        <item h="1" x="18"/>
+        <item x="18"/>
         <item h="1" x="0"/>
-        <item x="9"/>
+        <item h="1" x="9"/>
         <item h="1" x="8"/>
         <item h="1" x="10"/>
         <item h="1" x="13"/>
@@ -12265,9 +12868,9 @@
         <item h="1" x="0"/>
         <item h="1" x="13"/>
         <item h="1" x="11"/>
-        <item x="16"/>
+        <item h="1" x="16"/>
         <item h="1" x="5"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item h="1" x="8"/>
         <item h="1" x="9"/>
         <item h="1" x="7"/>
@@ -12330,131 +12933,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B26:C48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="22">
-        <item x="18"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="14"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="22">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de cantidad" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica6" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I5:N6" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -12587,6 +13067,129 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B26:C48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="22">
+        <item x="18"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="22">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de cantidad" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="characters" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -12627,9 +13230,9 @@
   <data>
     <tabular pivotCacheId="1">
       <items count="21">
-        <i x="18" nd="1"/>
+        <i x="18" s="1" nd="1"/>
         <i x="0" nd="1"/>
-        <i x="9" s="1" nd="1"/>
+        <i x="9" nd="1"/>
         <i x="8" nd="1"/>
         <i x="10" nd="1"/>
         <i x="13" nd="1"/>
@@ -12704,9 +13307,9 @@
         <i x="0" nd="1"/>
         <i x="13" nd="1"/>
         <i x="11" nd="1"/>
-        <i x="16" s="1" nd="1"/>
+        <i x="16" nd="1"/>
         <i x="5" nd="1"/>
-        <i x="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
         <i x="8" nd="1"/>
         <i x="9" nd="1"/>
         <i x="7" nd="1"/>
@@ -12725,7 +13328,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="name" cache="SegmentaciónDeDatos_name" caption="name" startItem="4" rowHeight="251883"/>
+  <slicer name="name" cache="SegmentaciónDeDatos_name" caption="name" rowHeight="251883"/>
   <slicer name="url" cache="SegmentaciónDeDatos_url" caption="url" rowHeight="251883"/>
   <slicer name="cantidad" cache="SegmentaciónDeDatos_cantidad" caption="cantidad" startItem="6" rowHeight="251883"/>
 </slicers>
@@ -12994,9 +13597,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13007,7 +13612,7 @@
     <col min="6" max="6" width="55.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>155</v>
       </c>
@@ -13026,8 +13631,14 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>918</v>
+      </c>
+      <c r="H1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -13046,8 +13657,14 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>28595</v>
+      </c>
+      <c r="H2">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -13066,8 +13683,14 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>28595</v>
+      </c>
+      <c r="H3">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -13086,8 +13709,11 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -13106,8 +13732,11 @@
       <c r="F5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -13126,8 +13755,11 @@
       <c r="F6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -13146,8 +13778,14 @@
       <c r="F7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="15">
+        <v>31730</v>
+      </c>
+      <c r="H7">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -13166,8 +13804,14 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="15">
+        <v>31730</v>
+      </c>
+      <c r="H8">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -13186,8 +13830,14 @@
       <c r="F9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="15">
+        <v>9162</v>
+      </c>
+      <c r="H9">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -13206,8 +13856,14 @@
       <c r="F10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="15">
+        <v>9162</v>
+      </c>
+      <c r="H10">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -13226,8 +13882,14 @@
       <c r="F11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="15">
+        <v>9162</v>
+      </c>
+      <c r="H11">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -13246,8 +13908,14 @@
       <c r="F12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="15">
+        <v>7077</v>
+      </c>
+      <c r="H12">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -13266,8 +13934,14 @@
       <c r="F13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="15">
+        <v>7077</v>
+      </c>
+      <c r="H13">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -13286,8 +13960,14 @@
       <c r="F14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="15">
+        <v>7077</v>
+      </c>
+      <c r="H14">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -13306,8 +13986,14 @@
       <c r="F15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="15">
+        <v>31731</v>
+      </c>
+      <c r="H15">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -13326,8 +14012,14 @@
       <c r="F16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="15">
+        <v>31731</v>
+      </c>
+      <c r="H16">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -13346,8 +14038,14 @@
       <c r="F17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="15">
+        <v>31732</v>
+      </c>
+      <c r="H17">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -13366,8 +14064,14 @@
       <c r="F18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="15">
+        <v>31732</v>
+      </c>
+      <c r="H18">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2023</v>
       </c>
@@ -13386,8 +14090,14 @@
       <c r="F19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="15">
+        <v>31732</v>
+      </c>
+      <c r="H19">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2024</v>
       </c>
@@ -13406,8 +14116,14 @@
       <c r="F20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="15">
+        <v>31733</v>
+      </c>
+      <c r="H20">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2025</v>
       </c>
@@ -13426,8 +14142,14 @@
       <c r="F21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="15">
+        <v>31733</v>
+      </c>
+      <c r="H21">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2026</v>
       </c>
@@ -13446,8 +14168,14 @@
       <c r="F22" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="15">
+        <v>31734</v>
+      </c>
+      <c r="H22">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2027</v>
       </c>
@@ -13466,8 +14194,14 @@
       <c r="F23" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="15">
+        <v>31734</v>
+      </c>
+      <c r="H23">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2028</v>
       </c>
@@ -13486,8 +14220,14 @@
       <c r="F24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="15">
+        <v>16064</v>
+      </c>
+      <c r="H24">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2029</v>
       </c>
@@ -13506,8 +14246,14 @@
       <c r="F25" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="15">
+        <v>448</v>
+      </c>
+      <c r="H25">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2030</v>
       </c>
@@ -13526,8 +14272,14 @@
       <c r="F26" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="15">
+        <v>448</v>
+      </c>
+      <c r="H26">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2031</v>
       </c>
@@ -13546,8 +14298,14 @@
       <c r="F27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="15">
+        <v>31736</v>
+      </c>
+      <c r="H27">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2032</v>
       </c>
@@ -13566,8 +14324,14 @@
       <c r="F28" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>2995</v>
+      </c>
+      <c r="I28" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2033</v>
       </c>
@@ -13586,8 +14350,11 @@
       <c r="F29" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2034</v>
       </c>
@@ -13606,8 +14373,14 @@
       <c r="F30" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>4755</v>
+      </c>
+      <c r="I30" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2035</v>
       </c>
@@ -13626,8 +14399,14 @@
       <c r="F31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="15">
+        <v>6097</v>
+      </c>
+      <c r="H31">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2036</v>
       </c>
@@ -13646,8 +14425,14 @@
       <c r="F32" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="15">
+        <v>6097</v>
+      </c>
+      <c r="H32">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2037</v>
       </c>
@@ -13666,8 +14451,14 @@
       <c r="F33" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="15">
+        <v>7088</v>
+      </c>
+      <c r="H33">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2038</v>
       </c>
@@ -13686,8 +14477,14 @@
       <c r="F34" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="15">
+        <v>31737</v>
+      </c>
+      <c r="H34">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2039</v>
       </c>
@@ -13706,8 +14503,11 @@
       <c r="F35" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2040</v>
       </c>
@@ -13726,8 +14526,14 @@
       <c r="F36" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="15">
+        <v>2796</v>
+      </c>
+      <c r="H36">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2041</v>
       </c>
@@ -13746,8 +14552,14 @@
       <c r="F37" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="15">
+        <v>2796</v>
+      </c>
+      <c r="H37">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2042</v>
       </c>
@@ -13766,8 +14578,14 @@
       <c r="F38" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="15">
+        <v>20769</v>
+      </c>
+      <c r="H38">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2043</v>
       </c>
@@ -13786,8 +14604,14 @@
       <c r="F39" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="15">
+        <v>20769</v>
+      </c>
+      <c r="H39">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2044</v>
       </c>
@@ -13806,8 +14630,14 @@
       <c r="F40" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="15">
+        <v>4501</v>
+      </c>
+      <c r="H40">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2045</v>
       </c>
@@ -13826,8 +14656,14 @@
       <c r="F41" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="15">
+        <v>31741</v>
+      </c>
+      <c r="H41">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2046</v>
       </c>
@@ -13846,8 +14682,14 @@
       <c r="F42" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="15">
+        <v>23455</v>
+      </c>
+      <c r="H42">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2047</v>
       </c>
@@ -13866,8 +14708,14 @@
       <c r="F43" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="15">
+        <v>7076</v>
+      </c>
+      <c r="H43">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2048</v>
       </c>
@@ -13886,8 +14734,14 @@
       <c r="F44" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="15">
+        <v>4129</v>
+      </c>
+      <c r="H44">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2049</v>
       </c>
@@ -13906,8 +14760,11 @@
       <c r="F45" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2050</v>
       </c>
@@ -13926,8 +14783,14 @@
       <c r="F46" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="15">
+        <v>26576</v>
+      </c>
+      <c r="H46">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2051</v>
       </c>
@@ -13946,8 +14809,11 @@
       <c r="F47" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>5522</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2052</v>
       </c>
@@ -13966,8 +14832,11 @@
       <c r="F48" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2053</v>
       </c>
@@ -13986,8 +14855,11 @@
       <c r="F49" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2054</v>
       </c>
@@ -14006,8 +14878,11 @@
       <c r="F50" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2055</v>
       </c>
@@ -14025,6 +14900,9 @@
       </c>
       <c r="F51" t="s">
         <v>154</v>
+      </c>
+      <c r="H51">
+        <v>3025</v>
       </c>
     </row>
   </sheetData>
@@ -14036,7 +14914,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15382,9 +16262,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15397,7 +16279,7 @@
     <col min="8" max="8" width="31.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>155</v>
       </c>
@@ -15419,8 +16301,11 @@
       <c r="G1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>48394</v>
       </c>
@@ -15445,8 +16330,11 @@
       <c r="H2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>48395</v>
       </c>
@@ -15471,8 +16359,11 @@
       <c r="H3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>48396</v>
       </c>
@@ -15497,8 +16388,11 @@
       <c r="H4" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>48397</v>
       </c>
@@ -15523,8 +16417,11 @@
       <c r="H5" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>48398</v>
       </c>
@@ -15549,8 +16446,11 @@
       <c r="H6" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>7349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>48399</v>
       </c>
@@ -15575,8 +16475,11 @@
       <c r="H7" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>48400</v>
       </c>
@@ -15601,8 +16504,11 @@
       <c r="H8" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>48401</v>
       </c>
@@ -15627,8 +16533,11 @@
       <c r="H9" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>48402</v>
       </c>
@@ -15653,8 +16562,11 @@
       <c r="H10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>48403</v>
       </c>
@@ -15679,8 +16591,11 @@
       <c r="H11" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>48404</v>
       </c>
@@ -15705,8 +16620,11 @@
       <c r="H12" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>48405</v>
       </c>
@@ -15731,8 +16649,11 @@
       <c r="H13" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>48406</v>
       </c>
@@ -15757,8 +16678,11 @@
       <c r="H14" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>48407</v>
       </c>
@@ -15783,8 +16707,11 @@
       <c r="H15" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>48408</v>
       </c>
@@ -15809,8 +16736,11 @@
       <c r="H16" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>48409</v>
       </c>
@@ -15835,8 +16765,11 @@
       <c r="H17" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>48410</v>
       </c>
@@ -15861,8 +16794,11 @@
       <c r="H18" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>48411</v>
       </c>
@@ -15887,8 +16823,11 @@
       <c r="H19" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>48412</v>
       </c>
@@ -15913,8 +16852,11 @@
       <c r="H20" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>48413</v>
       </c>
@@ -15939,8 +16881,11 @@
       <c r="H21" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>48414</v>
       </c>
@@ -15965,8 +16910,11 @@
       <c r="H22" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>48415</v>
       </c>
@@ -15991,8 +16939,11 @@
       <c r="H23" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>48416</v>
       </c>
@@ -16017,8 +16968,11 @@
       <c r="H24" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>48417</v>
       </c>
@@ -16043,8 +16997,11 @@
       <c r="H25" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>48418</v>
       </c>
@@ -16069,8 +17026,11 @@
       <c r="H26" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>48419</v>
       </c>
@@ -16095,8 +17055,11 @@
       <c r="H27" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>48420</v>
       </c>
@@ -16121,8 +17084,11 @@
       <c r="H28" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>48421</v>
       </c>
@@ -16147,8 +17113,11 @@
       <c r="H29" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>48422</v>
       </c>
@@ -16173,8 +17142,11 @@
       <c r="H30" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>48423</v>
       </c>
@@ -16199,8 +17171,11 @@
       <c r="H31" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>48424</v>
       </c>
@@ -16225,8 +17200,11 @@
       <c r="H32" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>48425</v>
       </c>
@@ -16251,8 +17229,11 @@
       <c r="H33" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>48426</v>
       </c>
@@ -16277,8 +17258,11 @@
       <c r="H34" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>48427</v>
       </c>
@@ -16303,8 +17287,11 @@
       <c r="H35" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>48428</v>
       </c>
@@ -16329,8 +17316,11 @@
       <c r="H36" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>48429</v>
       </c>
@@ -16355,8 +17345,11 @@
       <c r="H37" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>48430</v>
       </c>
@@ -16381,8 +17374,11 @@
       <c r="H38" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>48431</v>
       </c>
@@ -16407,8 +17403,11 @@
       <c r="H39" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>48432</v>
       </c>
@@ -16433,8 +17432,11 @@
       <c r="H40" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>48433</v>
       </c>
@@ -16459,8 +17461,11 @@
       <c r="H41" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>48434</v>
       </c>
@@ -16485,8 +17490,11 @@
       <c r="H42" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>48435</v>
       </c>
@@ -16511,8 +17519,11 @@
       <c r="H43" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>52163</v>
       </c>
@@ -16537,8 +17548,11 @@
       <c r="H44" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>18968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>52164</v>
       </c>
@@ -16563,8 +17577,11 @@
       <c r="H45" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>52165</v>
       </c>
@@ -16589,8 +17606,11 @@
       <c r="H46" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>7046</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>52166</v>
       </c>
@@ -16615,8 +17635,11 @@
       <c r="H47" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>52167</v>
       </c>
@@ -16641,8 +17664,11 @@
       <c r="H48" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>52168</v>
       </c>
@@ -16667,8 +17693,11 @@
       <c r="H49" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>52169</v>
       </c>
@@ -16693,8 +17722,11 @@
       <c r="H50" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>52170</v>
       </c>
@@ -16718,6 +17750,9 @@
       </c>
       <c r="H51" t="s">
         <v>461</v>
+      </c>
+      <c r="I51" t="s">
+        <v>917</v>
       </c>
     </row>
   </sheetData>
@@ -16727,9 +17762,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16740,7 +17777,7 @@
     <col min="6" max="6" width="46.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>155</v>
       </c>
@@ -16759,8 +17796,14 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16780,7 +17823,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16800,7 +17843,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16820,7 +17863,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16840,7 +17883,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16860,7 +17903,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16880,7 +17923,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16900,7 +17943,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16920,7 +17963,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16940,7 +17983,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16960,7 +18003,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16980,7 +18023,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17000,7 +18043,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17020,7 +18063,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17040,7 +18083,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17759,6 +18802,96 @@
       <c r="F51" t="s">
         <v>611</v>
       </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="9"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="9"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="11"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="11"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="9"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17987,7 +19120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="69" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
@@ -17999,7 +19132,7 @@
     <col min="4" max="4" width="66.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="16.83203125" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -19815,7 +20948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -20554,7 +21687,7 @@
   <dimension ref="A3:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20619,8 +21752,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="A17" zoomScale="93" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I6"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisCol" max="6" activeRow="4" activeCol="8" previousRow="4" previousCol="8" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
